--- a/Тесты/КонтрольнаяТПСГ.xlsx
+++ b/Тесты/КонтрольнаяТПСГ.xlsx
@@ -913,7 +913,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,7 +979,7 @@
       </c>
       <c r="B9" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Чем ГПСЧ на базе клеточного автомата отличается от РСЛОС?</v>
+        <v>Чем регистр сдвига с обратной связью по переносу отличается от РСЛОС?</v>
       </c>
       <c r="C9" s="13"/>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="B10" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Чем отличается генератор случайных бит от генератора случайных чисел?</v>
+        <v>Что такое нелинейный порядок двоичной функции?</v>
       </c>
       <c r="C10" s="13"/>
     </row>
@@ -999,17 +999,17 @@
       </c>
       <c r="B11" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое прореживаемый ГПСЧ?</v>
+        <v>Что такое функция инициализации ГПСЧ?</v>
       </c>
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое характеристический полином регистра сдвига с обратной линейной связью?</v>
+        <v>Какой ГПСЧ называется криптостойким?</v>
       </c>
       <c r="C12" s="13"/>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B13" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Какие проблемы приходится решать при реализации физического ГПСЧ?</v>
+        <v>Чем отличается генератор случайных бит от генератора случайных чисел?</v>
       </c>
       <c r="C13" s="13"/>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B14" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое функция инициализации ГПСЧ?</v>
+        <v>В чем главные недостатки метода срединных квадратов?</v>
       </c>
       <c r="C14" s="13"/>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B15" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>В чем главные недостатки метода срединных квадратов?</v>
+        <v>Какова максимальная длина последовательности ПСЧ для аддитивного генератора?</v>
       </c>
       <c r="C15" s="13"/>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B16" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое пороговый ГПСЧ?</v>
+        <v>Что такое псевдослучайное число?</v>
       </c>
       <c r="C16" s="13"/>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B17" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v xml:space="preserve">Какие источники энтропии могут быть использованы в ГПСЧ? </v>
+        <v>Какие классы генераторов случайных числе Вы знаете?</v>
       </c>
       <c r="C17" s="13"/>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B18" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое метод Таусворта генерации ПСЧ?</v>
+        <v>Что такое «отводы» в РСОЛС?</v>
       </c>
       <c r="C18" s="13"/>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B19" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое линейный конгруэнтный ГПСЧ?</v>
+        <v>Какие основные параметры ГПСЧ используются в оценке его пригодности для применения?</v>
       </c>
       <c r="C19" s="13"/>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B20" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое «отводы» в РСОЛС?</v>
+        <v>Что такое Регистр сдвига с обратной линейной связью?</v>
       </c>
       <c r="C20" s="13"/>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B21" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое аддитивный ГПСЧ?</v>
+        <v>Что такое «отводы» в РСОЛС?</v>
       </c>
       <c r="C21" s="13"/>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B22" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Какой максимальный период РСЛОС с примитивным характеристическим многочленом x^5+x^2+1?</v>
+        <v>Какие основные параметры ГПСЧ используются в оценке его пригодности для применения?</v>
       </c>
       <c r="C22" s="13"/>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B23" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Как работает ГПСЧ на базе клеточного автомата?</v>
+        <v>Что такое линейный конгруэнтный ГПСЧ?</v>
       </c>
       <c r="C23" s="13"/>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B24" s="15" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Какой ГПСЧ называется криптостойким?</v>
+        <v>Что называется ГСЧ с источником энтропии?</v>
       </c>
       <c r="C24" s="16"/>
     </row>
